--- a/doc/基本設計/テーブル定義書.xlsx
+++ b/doc/基本設計/テーブル定義書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Blogs\doc\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEFF117-6C6B-44F8-89B3-7937A2B3B412}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB551A4-D3EE-4218-9D62-338131F65CD3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="3105" windowWidth="11355" windowHeight="7815" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -1497,10 +1497,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>caretaker</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>ログ詳細</t>
     <rPh sb="2" eb="4">
       <t>ショウサイ</t>
@@ -1541,6 +1537,10 @@
   </si>
   <si>
     <t>noDetail</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>caretakers</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -2747,6 +2747,36 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2764,15 +2794,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2798,13 +2819,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2818,18 +2842,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2853,18 +2865,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3188,8 +3188,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -3268,16 +3268,16 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A3" s="107">
+      <c r="A3" s="71">
         <v>1</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="109" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="110"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -3309,7 +3309,7 @@
         <v>62</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="2"/>
@@ -31238,8 +31238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50DC253-F783-544A-951E-EDDCB2E9A558}">
   <dimension ref="A1:IV28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="136" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="136" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -31271,121 +31271,121 @@
       <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="89"/>
+      <c r="D2" s="76"/>
       <c r="E2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="88" t="s">
+      <c r="F2" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="90"/>
+      <c r="G2" s="77"/>
     </row>
     <row r="3" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="79"/>
       <c r="E3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="79"/>
+      <c r="G3" s="80"/>
     </row>
     <row r="4" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="78"/>
+      <c r="D4" s="79"/>
       <c r="E4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="79"/>
+      <c r="G4" s="80"/>
     </row>
     <row r="5" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="77" t="s">
-        <v>68</v>
+      <c r="C5" s="78" t="s">
+        <v>67</v>
       </c>
-      <c r="D5" s="78"/>
+      <c r="D5" s="79"/>
       <c r="E5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="77" t="s">
+      <c r="F5" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="79"/>
+      <c r="G5" s="80"/>
     </row>
     <row r="6" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="77" t="s">
-        <v>69</v>
+      <c r="C6" s="78" t="s">
+        <v>68</v>
       </c>
-      <c r="D6" s="78"/>
+      <c r="D6" s="79"/>
       <c r="E6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="77" t="s">
+      <c r="F6" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="79"/>
+      <c r="G6" s="80"/>
     </row>
     <row r="7" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="82"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="89"/>
     </row>
     <row r="8" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="82"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="89"/>
     </row>
     <row r="9" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="82"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="89"/>
     </row>
     <row r="10" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A10" s="2"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="87"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="94"/>
     </row>
     <row r="11" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
       <c r="A11" s="38"/>
@@ -31468,7 +31468,7 @@
         <v>57</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G15" s="26"/>
     </row>
@@ -31477,10 +31477,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>56</v>
@@ -31489,7 +31489,7 @@
         <v>57</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G16" s="26"/>
     </row>
@@ -31524,7 +31524,7 @@
         <v>37</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>38</v>
@@ -31547,7 +31547,7 @@
         <v>41</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>43</v>
@@ -31600,10 +31600,10 @@
       <c r="B23" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="72"/>
+      <c r="D23" s="82"/>
       <c r="E23" s="32" t="s">
         <v>23</v>
       </c>
@@ -31621,10 +31621,10 @@
       <c r="B24" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="73" t="s">
+      <c r="C24" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="74"/>
+      <c r="D24" s="84"/>
       <c r="E24" s="35" t="s">
         <v>30</v>
       </c>
@@ -31638,8 +31638,8 @@
         <v>2</v>
       </c>
       <c r="B25" s="45"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="76"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="86"/>
       <c r="E25" s="41"/>
       <c r="F25" s="41"/>
       <c r="G25" s="42"/>
@@ -31673,12 +31673,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
@@ -31688,6 +31682,12 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -31704,8 +31704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584F2860-3276-4FE9-B295-B24ECD9F17C0}">
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="136" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="136" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -31737,121 +31737,121 @@
       <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="89"/>
+      <c r="D2" s="76"/>
       <c r="E2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="88" t="s">
+      <c r="F2" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="90"/>
+      <c r="G2" s="77"/>
     </row>
     <row r="3" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
       <c r="A3" s="44"/>
       <c r="B3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="79"/>
       <c r="E3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="79"/>
+      <c r="G3" s="80"/>
     </row>
     <row r="4" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
       <c r="A4" s="44"/>
       <c r="B4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="78"/>
+      <c r="D4" s="79"/>
       <c r="E4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="79"/>
+      <c r="G4" s="80"/>
     </row>
     <row r="5" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
       <c r="A5" s="44"/>
       <c r="B5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="78"/>
+      <c r="D5" s="79"/>
       <c r="E5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="77" t="s">
+      <c r="F5" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="79"/>
+      <c r="G5" s="80"/>
     </row>
     <row r="6" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
       <c r="A6" s="44"/>
       <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="77" t="s">
-        <v>63</v>
+      <c r="C6" s="78" t="s">
+        <v>73</v>
       </c>
-      <c r="D6" s="78"/>
+      <c r="D6" s="79"/>
       <c r="E6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="77" t="s">
+      <c r="F6" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="79"/>
+      <c r="G6" s="80"/>
     </row>
     <row r="7" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="44"/>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="82"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="89"/>
     </row>
     <row r="8" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
       <c r="A8" s="44"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="82"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="89"/>
     </row>
     <row r="9" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
       <c r="A9" s="44"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="82"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="89"/>
     </row>
     <row r="10" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A10" s="44"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="87"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="94"/>
     </row>
     <row r="11" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
       <c r="A11" s="38"/>
@@ -31934,7 +31934,7 @@
         <v>30</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G15" s="26"/>
     </row>
@@ -31955,7 +31955,7 @@
         <v>57</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G16" s="26"/>
     </row>
@@ -32043,10 +32043,10 @@
       <c r="B22" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="71" t="s">
+      <c r="C22" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="72"/>
+      <c r="D22" s="82"/>
       <c r="E22" s="32" t="s">
         <v>23</v>
       </c>
@@ -32064,10 +32064,10 @@
       <c r="B23" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="74"/>
+      <c r="D23" s="84"/>
       <c r="E23" s="35" t="s">
         <v>30</v>
       </c>
@@ -32081,8 +32081,8 @@
         <v>2</v>
       </c>
       <c r="B24" s="45"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="76"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="86"/>
       <c r="E24" s="41"/>
       <c r="F24" s="41"/>
       <c r="G24" s="42"/>
@@ -32116,6 +32116,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
@@ -32125,12 +32131,6 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -32200,13 +32200,13 @@
       <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="97"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="96"/>
       <c r="E2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="98"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="97"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -32232,13 +32232,13 @@
       <c r="B3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="95"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="77"/>
-      <c r="G3" s="96"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="95"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -32264,13 +32264,13 @@
       <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="95"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="77"/>
-      <c r="G4" s="96"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="95"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -32296,15 +32296,15 @@
       <c r="B5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="95"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="77"/>
-      <c r="G5" s="96"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="95"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -32330,11 +32330,11 @@
       <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="95"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="98"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="96"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="95"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -32357,14 +32357,14 @@
     </row>
     <row r="7" spans="1:26" ht="11.25" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="102"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="106"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -32387,14 +32387,14 @@
     </row>
     <row r="8" spans="1:26" ht="11.25" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="102"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="106"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -32417,12 +32417,12 @@
     </row>
     <row r="9" spans="1:26" ht="11.25" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="102"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="106"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -32445,12 +32445,12 @@
     </row>
     <row r="10" spans="1:26" ht="11.25" customHeight="1">
       <c r="A10" s="2"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="106"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="110"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -32996,10 +32996,10 @@
       <c r="B26" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="93" t="s">
+      <c r="C26" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="94"/>
+      <c r="D26" s="102"/>
       <c r="E26" s="61" t="s">
         <v>23</v>
       </c>
@@ -33036,8 +33036,8 @@
       <c r="B27" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="99"/>
-      <c r="D27" s="100"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="104"/>
       <c r="E27" s="64"/>
       <c r="F27" s="64"/>
       <c r="G27" s="65"/>
@@ -33068,8 +33068,8 @@
       <c r="B28" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
       <c r="E28" s="64"/>
       <c r="F28" s="66" t="s">
         <v>12</v>
@@ -33104,8 +33104,8 @@
       <c r="B29" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="100"/>
       <c r="E29" s="68"/>
       <c r="F29" s="69" t="s">
         <v>12</v>
@@ -59511,6 +59511,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="B7:G7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="C2:D2"/>
@@ -59519,18 +59527,10 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="B7:G7"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P/</oddFooter>
